--- a/fio/format/xlsx/performance.xlsx
+++ b/fio/format/xlsx/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="IOPS" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>disk</t>
-  </si>
-  <si>
-    <t>IOPS</t>
   </si>
   <si>
     <t>sda</t>
@@ -62,7 +59,16 @@
     <t>sdn</t>
   </si>
   <si>
-    <t>BW</t>
+    <t>IOPS(randwrite_04k)</t>
+  </si>
+  <si>
+    <t>IOPS(randwrite_08k)</t>
+  </si>
+  <si>
+    <t>IOPS(randwrite_64k)</t>
+  </si>
+  <si>
+    <t>BW(randwrite_04k)</t>
   </si>
 </sst>
 </file>
@@ -119,10 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -149,7 +158,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IOPS</a:t>
+              <a:t>IOPS(SSD &amp; HDD)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -165,7 +174,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SSD &amp; HDD</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -221,43 +230,247 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>63800</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>63700</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>randwrite_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>63200</c:v>
+                  <c:v>sdb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1518</c:v>
+                  <c:v>sdd</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1534</c:v>
+                  <c:v>sde</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1498</c:v>
+                  <c:v>sdf</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1506</c:v>
+                  <c:v>sdg</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1571</c:v>
+                  <c:v>sdh</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1558</c:v>
+                  <c:v>sdi</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1499</c:v>
+                  <c:v>sdj</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>409</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>431</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1537</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1543</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>432</c:v>
+                  <c:v>390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>randwrite_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,7 +571,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IOPS</a:t>
+              <a:t>IOPS(SSD)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -374,7 +587,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SSD</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -397,10 +610,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>63800</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>63700</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>randwrite_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>63200</c:v>
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>randwrite_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,7 +786,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IOPS</a:t>
+              <a:t>IOPS(HDD)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -517,7 +802,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>HDD</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -567,37 +852,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1518</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1534</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1498</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1506</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1571</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1558</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1499</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>randwrite_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>409</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>431</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>1537</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1543</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>432</c:v>
+                  <c:v>390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>randwrite_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,7 +1163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BW</a:t>
+              <a:t>BW(SSD &amp; HDD)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -714,7 +1179,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SSD &amp; HDD</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -773,40 +1238,40 @@
                   <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.073</c:v>
+                  <c:v>1.559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.138</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.992</c:v>
+                  <c:v>1.583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.025</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.287</c:v>
+                  <c:v>1.676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.234</c:v>
+                  <c:v>1.543</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.637</c:v>
+                  <c:v>1.716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.151</c:v>
+                  <c:v>1.702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.173</c:v>
+                  <c:v>1.505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.73</c:v>
+                  <c:v>1.547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,7 +1372,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BW</a:t>
+              <a:t>BW(SSD)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -923,7 +1388,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SSD</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -949,7 +1414,7 @@
                   <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,7 +1515,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BW</a:t>
+              <a:t>BW(HDD)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1066,7 +1531,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>HDD</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1116,37 +1581,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.073</c:v>
+                  <c:v>1.559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.138</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.992</c:v>
+                  <c:v>1.583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.025</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.287</c:v>
+                  <c:v>1.676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.234</c:v>
+                  <c:v>1.543</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.637</c:v>
+                  <c:v>1.716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.151</c:v>
+                  <c:v>1.702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.173</c:v>
+                  <c:v>1.505</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.73</c:v>
+                  <c:v>1.547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,13 +1703,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1268,13 +1733,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1298,13 +1763,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1333,13 +1798,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1363,13 +1828,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1393,13 +1858,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1707,9 +2172,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1717,88 +2182,170 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>63800</v>
+      </c>
+      <c r="C2" s="3">
         <v>63700</v>
       </c>
-      <c r="C2" s="2">
-        <v>63200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1518</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1534</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1498</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1506</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1571</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1558</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1499</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="D2" s="3">
+        <v>389</v>
+      </c>
+      <c r="E2" s="3">
+        <v>389</v>
+      </c>
+      <c r="F2" s="3">
+        <v>395</v>
+      </c>
+      <c r="G2" s="3">
+        <v>395</v>
+      </c>
+      <c r="H2" s="3">
+        <v>418</v>
+      </c>
+      <c r="I2" s="3">
+        <v>385</v>
+      </c>
+      <c r="J2" s="3">
+        <v>404</v>
+      </c>
+      <c r="K2" s="3">
+        <v>428</v>
+      </c>
+      <c r="L2" s="3">
+        <v>425</v>
+      </c>
+      <c r="M2" s="3">
+        <v>376</v>
+      </c>
+      <c r="N2" s="3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="3">
+        <v>42900</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>399</v>
+      </c>
+      <c r="E3" s="3">
+        <v>399</v>
+      </c>
+      <c r="F3" s="3">
+        <v>403</v>
+      </c>
+      <c r="G3" s="3">
+        <v>404</v>
+      </c>
+      <c r="H3" s="3">
+        <v>422</v>
+      </c>
+      <c r="I3" s="3">
+        <v>385</v>
+      </c>
+      <c r="J3" s="3">
         <v>409</v>
       </c>
-      <c r="L2" s="2">
-        <v>1537</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1543</v>
-      </c>
-      <c r="N2" s="2">
-        <v>432</v>
+      <c r="K3" s="3">
+        <v>431</v>
+      </c>
+      <c r="L3" s="3">
+        <v>429</v>
+      </c>
+      <c r="M3" s="3">
+        <v>385</v>
+      </c>
+      <c r="N3" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="3">
+        <v>7208</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7246</v>
+      </c>
+      <c r="D4" s="3">
+        <v>401</v>
+      </c>
+      <c r="E4" s="3">
+        <v>383</v>
+      </c>
+      <c r="F4" s="3">
+        <v>390</v>
+      </c>
+      <c r="G4" s="3">
+        <v>402</v>
+      </c>
+      <c r="H4" s="3">
+        <v>410</v>
+      </c>
+      <c r="I4" s="3">
+        <v>375</v>
+      </c>
+      <c r="J4" s="3">
+        <v>412</v>
+      </c>
+      <c r="K4" s="3">
+        <v>425</v>
+      </c>
+      <c r="L4" s="3">
+        <v>424</v>
+      </c>
+      <c r="M4" s="3">
+        <v>396</v>
+      </c>
+      <c r="N4" s="3">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1819,88 +2366,88 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
         <v>249</v>
       </c>
-      <c r="C2" s="2">
-        <v>247</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.073</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.138</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5.992</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6.025</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.287</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6.234</v>
-      </c>
-      <c r="J2" s="2">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.637</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6.151</v>
-      </c>
-      <c r="M2" s="2">
-        <v>6.173</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.73</v>
+      <c r="C2" s="3">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.559</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.583</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.676</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.543</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.716</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.702</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.505</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.547</v>
       </c>
     </row>
   </sheetData>
